--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H2">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N2">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q2">
-        <v>149.6955132379784</v>
+        <v>185.3465378094807</v>
       </c>
       <c r="R2">
-        <v>149.6955132379784</v>
+        <v>1668.118840285326</v>
       </c>
       <c r="S2">
-        <v>0.02929890622574574</v>
+        <v>0.02651203574150563</v>
       </c>
       <c r="T2">
-        <v>0.02929890622574574</v>
+        <v>0.02651203574150563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H3">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q3">
-        <v>45.0406079993512</v>
+        <v>47.80299846033977</v>
       </c>
       <c r="R3">
-        <v>45.0406079993512</v>
+        <v>430.226986143058</v>
       </c>
       <c r="S3">
-        <v>0.008815498351147416</v>
+        <v>0.006837758172933295</v>
       </c>
       <c r="T3">
-        <v>0.008815498351147416</v>
+        <v>0.006837758172933298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H4">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N4">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q4">
-        <v>7.697182414003283</v>
+        <v>8.782588009112891</v>
       </c>
       <c r="R4">
-        <v>7.697182414003283</v>
+        <v>79.04329208201601</v>
       </c>
       <c r="S4">
-        <v>0.001506518270803632</v>
+        <v>0.001256264562329523</v>
       </c>
       <c r="T4">
-        <v>0.001506518270803632</v>
+        <v>0.001256264562329524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H5">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N5">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q5">
-        <v>7.758894111274345</v>
+        <v>8.213003022015888</v>
       </c>
       <c r="R5">
-        <v>7.758894111274345</v>
+        <v>73.917027198143</v>
       </c>
       <c r="S5">
-        <v>0.00151859669047211</v>
+        <v>0.001174790919960962</v>
       </c>
       <c r="T5">
-        <v>0.00151859669047211</v>
+        <v>0.001174790919960962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H6">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N6">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q6">
-        <v>2.445791018274031</v>
+        <v>2.573977280692334</v>
       </c>
       <c r="R6">
-        <v>2.445791018274031</v>
+        <v>23.165795526231</v>
       </c>
       <c r="S6">
-        <v>0.0004786983934399034</v>
+        <v>0.0003681826403128421</v>
       </c>
       <c r="T6">
-        <v>0.0004786983934399034</v>
+        <v>0.0003681826403128422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H7">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I7">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J7">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N7">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q7">
-        <v>8.203161862308187</v>
+        <v>9.197235130194445</v>
       </c>
       <c r="R7">
-        <v>8.203161862308187</v>
+        <v>82.77511617175</v>
       </c>
       <c r="S7">
-        <v>0.001605550259721513</v>
+        <v>0.001315575836357887</v>
       </c>
       <c r="T7">
-        <v>0.001605550259721513</v>
+        <v>0.001315575836357887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H8">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N8">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q8">
-        <v>1821.061858379121</v>
+        <v>2169.390617790777</v>
       </c>
       <c r="R8">
-        <v>1821.061858379121</v>
+        <v>19524.515560117</v>
       </c>
       <c r="S8">
-        <v>0.3564243140347891</v>
+        <v>0.3103104178577978</v>
       </c>
       <c r="T8">
-        <v>0.3564243140347891</v>
+        <v>0.3103104178577979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H9">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q9">
-        <v>547.9237923145363</v>
+        <v>559.5107283240742</v>
       </c>
       <c r="R9">
-        <v>547.9237923145363</v>
+        <v>5035.596554916668</v>
       </c>
       <c r="S9">
-        <v>0.1072414761313349</v>
+        <v>0.08003261675344299</v>
       </c>
       <c r="T9">
-        <v>0.1072414761313349</v>
+        <v>0.08003261675344304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H10">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N10">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q10">
-        <v>93.63704367574674</v>
+        <v>102.7958992494151</v>
       </c>
       <c r="R10">
-        <v>93.63704367574674</v>
+        <v>925.1630932447362</v>
       </c>
       <c r="S10">
-        <v>0.01832695518101697</v>
+        <v>0.01470396257297287</v>
       </c>
       <c r="T10">
-        <v>0.01832695518101697</v>
+        <v>0.01470396257297288</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H11">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N11">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q11">
-        <v>94.38777304421828</v>
+        <v>96.12918541895311</v>
       </c>
       <c r="R11">
-        <v>94.38777304421828</v>
+        <v>865.1626687705781</v>
       </c>
       <c r="S11">
-        <v>0.01847389044241518</v>
+        <v>0.01375035341770891</v>
       </c>
       <c r="T11">
-        <v>0.01847389044241518</v>
+        <v>0.01375035341770892</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H12">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J12">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N12">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q12">
-        <v>29.75330816939332</v>
+        <v>30.12714577318067</v>
       </c>
       <c r="R12">
-        <v>29.75330816939332</v>
+        <v>271.144311958626</v>
       </c>
       <c r="S12">
-        <v>0.005823416928835553</v>
+        <v>0.004309397817558047</v>
       </c>
       <c r="T12">
-        <v>0.005823416928835553</v>
+        <v>0.004309397817558049</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H13">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J13">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N13">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q13">
-        <v>99.79233754194928</v>
+        <v>107.6491411000556</v>
       </c>
       <c r="R13">
-        <v>99.79233754194928</v>
+        <v>968.8422699005001</v>
       </c>
       <c r="S13">
-        <v>0.01953168987130175</v>
+        <v>0.01539817204096202</v>
       </c>
       <c r="T13">
-        <v>0.01953168987130175</v>
+        <v>0.01539817204096203</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H14">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N14">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q14">
-        <v>106.6272112299813</v>
+        <v>47.68857889729266</v>
       </c>
       <c r="R14">
-        <v>106.6272112299813</v>
+        <v>429.197210075634</v>
       </c>
       <c r="S14">
-        <v>0.02086943419589023</v>
+        <v>0.006821391557290598</v>
       </c>
       <c r="T14">
-        <v>0.02086943419589023</v>
+        <v>0.006821391557290601</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H15">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q15">
-        <v>32.08215342726235</v>
+        <v>12.29943159740244</v>
       </c>
       <c r="R15">
-        <v>32.08215342726235</v>
+        <v>110.694884376622</v>
       </c>
       <c r="S15">
-        <v>0.006279226307144069</v>
+        <v>0.001759315139976991</v>
       </c>
       <c r="T15">
-        <v>0.006279226307144069</v>
+        <v>0.001759315139976992</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H16">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N16">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q16">
-        <v>5.482656609947096</v>
+        <v>2.259708469038222</v>
       </c>
       <c r="R16">
-        <v>5.482656609947096</v>
+        <v>20.337376221344</v>
       </c>
       <c r="S16">
-        <v>0.001073083878121546</v>
+        <v>0.0003232295159357429</v>
       </c>
       <c r="T16">
-        <v>0.001073083878121546</v>
+        <v>0.000323229515935743</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H17">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I17">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J17">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N17">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q17">
-        <v>5.526613479715273</v>
+        <v>2.113157587015222</v>
       </c>
       <c r="R17">
-        <v>5.526613479715273</v>
+        <v>19.018418283137</v>
       </c>
       <c r="S17">
-        <v>0.001081687263603566</v>
+        <v>0.0003022668248163827</v>
       </c>
       <c r="T17">
-        <v>0.001081687263603566</v>
+        <v>0.0003022668248163829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H18">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I18">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J18">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N18">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q18">
-        <v>1.742122191166202</v>
+        <v>0.6622692826143334</v>
       </c>
       <c r="R18">
-        <v>1.742122191166202</v>
+        <v>5.960423543529</v>
       </c>
       <c r="S18">
-        <v>0.0003409739785027813</v>
+        <v>9.473123748996394E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003409739785027813</v>
+        <v>9.4731237489964E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H19">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I19">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J19">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N19">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O19">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P19">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q19">
-        <v>5.843062719291653</v>
+        <v>2.366394745361111</v>
       </c>
       <c r="R19">
-        <v>5.843062719291653</v>
+        <v>21.29755270825</v>
       </c>
       <c r="S19">
-        <v>0.00114362376654215</v>
+        <v>0.0003384899594510568</v>
       </c>
       <c r="T19">
-        <v>0.00114362376654215</v>
+        <v>0.000338489959451057</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H20">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N20">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O20">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P20">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q20">
-        <v>1385.883880359323</v>
+        <v>126.73944741744</v>
       </c>
       <c r="R20">
-        <v>1385.883880359323</v>
+        <v>1140.65502675696</v>
       </c>
       <c r="S20">
-        <v>0.2712498255433271</v>
+        <v>0.01812885635470429</v>
       </c>
       <c r="T20">
-        <v>0.2712498255433271</v>
+        <v>0.01812885635470429</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H21">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I21">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J21">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N21">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O21">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P21">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q21">
-        <v>416.9867969833549</v>
+        <v>32.68755748752</v>
       </c>
       <c r="R21">
-        <v>416.9867969833549</v>
+        <v>294.18801738768</v>
       </c>
       <c r="S21">
-        <v>0.08161404973285349</v>
+        <v>0.004675640034357964</v>
       </c>
       <c r="T21">
-        <v>0.08161404973285349</v>
+        <v>0.004675640034357967</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H22">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I22">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J22">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N22">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O22">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P22">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q22">
-        <v>71.26065972861802</v>
+        <v>6.005509271040001</v>
       </c>
       <c r="R22">
-        <v>71.26065972861802</v>
+        <v>54.04958343936</v>
       </c>
       <c r="S22">
-        <v>0.01394737451919739</v>
+        <v>0.0008590302161641549</v>
       </c>
       <c r="T22">
-        <v>0.01394737451919739</v>
+        <v>0.0008590302161641551</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H23">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I23">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J23">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N23">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O23">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P23">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q23">
-        <v>71.83198778399945</v>
+        <v>5.61602863992</v>
       </c>
       <c r="R23">
-        <v>71.83198778399945</v>
+        <v>50.54425775927999</v>
       </c>
       <c r="S23">
-        <v>0.01405919675592768</v>
+        <v>0.0008033187659535675</v>
       </c>
       <c r="T23">
-        <v>0.01405919675592768</v>
+        <v>0.000803318765953568</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H24">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I24">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J24">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N24">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O24">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P24">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q24">
-        <v>22.64317930200759</v>
+        <v>1.76007851064</v>
       </c>
       <c r="R24">
-        <v>22.64317930200759</v>
+        <v>15.84070659576</v>
       </c>
       <c r="S24">
-        <v>0.004431798740471232</v>
+        <v>0.0002517622661498498</v>
       </c>
       <c r="T24">
-        <v>0.004431798740471232</v>
+        <v>0.0002517622661498499</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.73368</v>
+      </c>
+      <c r="H25">
+        <v>2.20104</v>
+      </c>
+      <c r="I25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="J25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N25">
+        <v>25.71575</v>
+      </c>
+      <c r="O25">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P25">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q25">
+        <v>6.28904382</v>
+      </c>
+      <c r="R25">
+        <v>56.60139438</v>
+      </c>
+      <c r="S25">
+        <v>0.0008995871004999499</v>
+      </c>
+      <c r="T25">
+        <v>0.0008995871004999505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.253455</v>
+      </c>
+      <c r="I26">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J26">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>172.744858</v>
+      </c>
+      <c r="N26">
+        <v>518.234574</v>
+      </c>
+      <c r="O26">
+        <v>0.7076554979861184</v>
+      </c>
+      <c r="P26">
+        <v>0.7076554979861185</v>
+      </c>
+      <c r="Q26">
+        <v>14.59434932813</v>
+      </c>
+      <c r="R26">
+        <v>131.34914395317</v>
+      </c>
+      <c r="S26">
+        <v>0.002087581001427314</v>
+      </c>
+      <c r="T26">
+        <v>0.002087581001427315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.253455</v>
+      </c>
+      <c r="I27">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J27">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>44.55288066666666</v>
+      </c>
+      <c r="N27">
+        <v>133.658642</v>
+      </c>
+      <c r="O27">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="P27">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="Q27">
+        <v>3.764050123123333</v>
+      </c>
+      <c r="R27">
+        <v>33.87645110811</v>
+      </c>
+      <c r="S27">
+        <v>0.0005384110897158605</v>
+      </c>
+      <c r="T27">
+        <v>0.0005384110897158609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.253455</v>
+      </c>
+      <c r="I28">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J28">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.185461333333334</v>
+      </c>
+      <c r="N28">
+        <v>24.556384</v>
+      </c>
+      <c r="O28">
+        <v>0.03353203553003075</v>
+      </c>
+      <c r="P28">
+        <v>0.03353203553003076</v>
+      </c>
+      <c r="Q28">
+        <v>0.6915487007466666</v>
+      </c>
+      <c r="R28">
+        <v>6.22393830672</v>
+      </c>
+      <c r="S28">
+        <v>9.891937603945674E-05</v>
+      </c>
+      <c r="T28">
+        <v>9.891937603945677E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.253455</v>
+      </c>
+      <c r="I29">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J29">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>7.654602333333333</v>
+      </c>
+      <c r="N29">
+        <v>22.963807</v>
+      </c>
+      <c r="O29">
+        <v>0.03135735262279531</v>
+      </c>
+      <c r="P29">
+        <v>0.03135735262279532</v>
+      </c>
+      <c r="Q29">
+        <v>0.6466990781316666</v>
+      </c>
+      <c r="R29">
+        <v>5.820291703184999</v>
+      </c>
+      <c r="S29">
+        <v>9.250406981461556E-05</v>
+      </c>
+      <c r="T29">
+        <v>9.250406981461562E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.253455</v>
+      </c>
+      <c r="I30">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J30">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.398973</v>
+      </c>
+      <c r="N30">
+        <v>7.196919</v>
+      </c>
+      <c r="O30">
+        <v>0.009827478818329009</v>
+      </c>
+      <c r="P30">
+        <v>0.009827478818329011</v>
+      </c>
+      <c r="Q30">
+        <v>0.202677233905</v>
+      </c>
+      <c r="R30">
+        <v>1.824095105145</v>
+      </c>
+      <c r="S30">
+        <v>2.899102477329362E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.899102477329363E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.253455</v>
+      </c>
+      <c r="I31">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J31">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N31">
+        <v>25.71575</v>
+      </c>
+      <c r="O31">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P31">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q31">
+        <v>0.7241983795833332</v>
+      </c>
+      <c r="R31">
+        <v>6.51778541625</v>
+      </c>
+      <c r="S31">
+        <v>0.0001035895978979095</v>
+      </c>
+      <c r="T31">
+        <v>0.0001035895978979096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H32">
+        <v>41.740472</v>
+      </c>
+      <c r="I32">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J32">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>172.744858</v>
+      </c>
+      <c r="N32">
+        <v>518.234574</v>
+      </c>
+      <c r="O32">
+        <v>0.7076554979861184</v>
+      </c>
+      <c r="P32">
+        <v>0.7076554979861185</v>
+      </c>
+      <c r="Q32">
+        <v>2403.483969497659</v>
+      </c>
+      <c r="R32">
+        <v>21631.35572547892</v>
+      </c>
+      <c r="S32">
+        <v>0.3437952154733928</v>
+      </c>
+      <c r="T32">
+        <v>0.3437952154733929</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H33">
+        <v>41.740472</v>
+      </c>
+      <c r="I33">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J33">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>44.55288066666666</v>
+      </c>
+      <c r="N33">
+        <v>133.658642</v>
+      </c>
+      <c r="O33">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="P33">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="Q33">
+        <v>619.8860893287804</v>
+      </c>
+      <c r="R33">
+        <v>5578.974803959023</v>
+      </c>
+      <c r="S33">
+        <v>0.08866873020762805</v>
+      </c>
+      <c r="T33">
+        <v>0.0886687302076281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H34">
+        <v>41.740472</v>
+      </c>
+      <c r="I34">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J34">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.185461333333334</v>
+      </c>
+      <c r="N34">
+        <v>24.556384</v>
+      </c>
+      <c r="O34">
+        <v>0.03353203553003075</v>
+      </c>
+      <c r="P34">
+        <v>0.03353203553003076</v>
+      </c>
+      <c r="Q34">
+        <v>113.8883398636942</v>
+      </c>
+      <c r="R34">
+        <v>1024.995058773248</v>
+      </c>
+      <c r="S34">
+        <v>0.016290629286589</v>
+      </c>
+      <c r="T34">
+        <v>0.01629062928658901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="H25">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="I25">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="J25">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>8.0359416949545</v>
-      </c>
-      <c r="N25">
-        <v>8.0359416949545</v>
-      </c>
-      <c r="O25">
-        <v>0.03714507843496045</v>
-      </c>
-      <c r="P25">
-        <v>0.03714507843496045</v>
-      </c>
-      <c r="Q25">
-        <v>75.94502698873819</v>
-      </c>
-      <c r="R25">
-        <v>75.94502698873819</v>
-      </c>
-      <c r="S25">
-        <v>0.01486421453739504</v>
-      </c>
-      <c r="T25">
-        <v>0.01486421453739504</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H35">
+        <v>41.740472</v>
+      </c>
+      <c r="I35">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J35">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>7.654602333333333</v>
+      </c>
+      <c r="N35">
+        <v>22.963807</v>
+      </c>
+      <c r="O35">
+        <v>0.03135735262279531</v>
+      </c>
+      <c r="P35">
+        <v>0.03135735262279532</v>
+      </c>
+      <c r="Q35">
+        <v>106.5022381218782</v>
+      </c>
+      <c r="R35">
+        <v>958.5201430969039</v>
+      </c>
+      <c r="S35">
+        <v>0.01523411862454087</v>
+      </c>
+      <c r="T35">
+        <v>0.01523411862454088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H36">
+        <v>41.740472</v>
+      </c>
+      <c r="I36">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J36">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.398973</v>
+      </c>
+      <c r="N36">
+        <v>7.196919</v>
+      </c>
+      <c r="O36">
+        <v>0.009827478818329009</v>
+      </c>
+      <c r="P36">
+        <v>0.009827478818329011</v>
+      </c>
+      <c r="Q36">
+        <v>33.37808844508534</v>
+      </c>
+      <c r="R36">
+        <v>300.402796005768</v>
+      </c>
+      <c r="S36">
+        <v>0.004774413832045013</v>
+      </c>
+      <c r="T36">
+        <v>0.004774413832045014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H37">
+        <v>41.740472</v>
+      </c>
+      <c r="I37">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J37">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N37">
+        <v>25.71575</v>
+      </c>
+      <c r="O37">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P37">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q37">
+        <v>119.2652825371111</v>
+      </c>
+      <c r="R37">
+        <v>1073.387542834</v>
+      </c>
+      <c r="S37">
+        <v>0.01705974910950248</v>
+      </c>
+      <c r="T37">
+        <v>0.01705974910950249</v>
       </c>
     </row>
   </sheetData>
